--- a/DataTable/bin/Debug/Excel/Spirit.xlsx
+++ b/DataTable/bin/Debug/Excel/Spirit.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DataTable\DataTable\bin\Debug\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\LittleHero\DataTable\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="142">
   <si>
     <t>#</t>
   </si>
@@ -531,6 +531,18 @@
   </si>
   <si>
     <t>#type</t>
+  </si>
+  <si>
+    <t>Icon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图标id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -989,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N86"/>
+  <dimension ref="A1:O86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1001,13 +1013,13 @@
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="11.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.375" customWidth="1"/>
-    <col min="5" max="5" width="15.75" customWidth="1"/>
-    <col min="6" max="6" width="14.125" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
-    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="15.75" customWidth="1"/>
+    <col min="7" max="7" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="13.125" customWidth="1"/>
+    <col min="11" max="11" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1024,31 +1036,34 @@
         <v>8</v>
       </c>
       <c r="F1" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="I1" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="M1" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
         <v>137</v>
       </c>
@@ -1065,31 +1080,34 @@
         <v>135</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="L2" s="16" t="s">
+      <c r="M2" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="N2" s="18" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="15" t="s">
         <v>138</v>
       </c>
@@ -1105,19 +1123,22 @@
       <c r="E3" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="F3" s="8"/>
+      <c r="F3" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="18" t="s">
+      <c r="L3" s="8"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="N3" s="18"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3" s="18"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="4">
         <v>10001</v>
@@ -1131,21 +1152,24 @@
       <c r="E4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="5">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5"/>
+      <c r="F4" s="4">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="6"/>
-      <c r="M4" t="str">
-        <f>F4&amp;$N$1&amp;G4&amp;$N$1&amp;H4&amp;$N$1&amp;I4&amp;$N$1&amp;J4&amp;$N$1&amp;K4&amp;$N$1&amp;L4</f>
+      <c r="L4" s="5"/>
+      <c r="M4" s="6"/>
+      <c r="N4" t="str">
+        <f>G4&amp;$O$1&amp;H4&amp;$O$1&amp;I4&amp;$O$1&amp;J4&amp;$O$1&amp;K4&amp;$O$1&amp;L4&amp;$O$1&amp;M4</f>
         <v>1,,,,,,</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="8">
         <v>10002</v>
@@ -1159,21 +1183,24 @@
       <c r="E5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="9">
-        <v>3</v>
-      </c>
-      <c r="G5" s="9"/>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9">
+        <v>3</v>
+      </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
-      <c r="L5" s="10"/>
-      <c r="M5" t="str">
-        <f t="shared" ref="M5:M68" si="0">F5&amp;$N$1&amp;G5&amp;$N$1&amp;H5&amp;$N$1&amp;I5&amp;$N$1&amp;J5&amp;$N$1&amp;K5&amp;$N$1&amp;L5</f>
+      <c r="L5" s="9"/>
+      <c r="M5" s="10"/>
+      <c r="N5" t="str">
+        <f t="shared" ref="N5:N68" si="0">G5&amp;$O$1&amp;H5&amp;$O$1&amp;I5&amp;$O$1&amp;J5&amp;$O$1&amp;K5&amp;$O$1&amp;L5&amp;$O$1&amp;M5</f>
         <v>3,,,,,,</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="8">
         <v>10003</v>
@@ -1187,21 +1214,24 @@
       <c r="E6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9">
         <v>5</v>
       </c>
-      <c r="G6" s="9"/>
       <c r="H6" s="9"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
-      <c r="L6" s="10"/>
-      <c r="M6" t="str">
+      <c r="L6" s="9"/>
+      <c r="M6" s="10"/>
+      <c r="N6" t="str">
         <f t="shared" si="0"/>
         <v>5,,,,,,</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="8">
         <v>10004</v>
@@ -1215,21 +1245,24 @@
       <c r="E7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="9">
         <v>8</v>
       </c>
-      <c r="G7" s="9"/>
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
-      <c r="L7" s="10"/>
-      <c r="M7" t="str">
+      <c r="L7" s="9"/>
+      <c r="M7" s="10"/>
+      <c r="N7" t="str">
         <f t="shared" si="0"/>
         <v>8,,,,,,</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="8">
         <v>10005</v>
@@ -1243,21 +1276,24 @@
       <c r="E8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="9"/>
+      <c r="F8" s="8">
+        <v>6</v>
+      </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="10">
-        <v>1</v>
-      </c>
-      <c r="M8" t="str">
+      <c r="L8" s="9"/>
+      <c r="M8" s="10">
+        <v>1</v>
+      </c>
+      <c r="N8" t="str">
         <f t="shared" si="0"/>
         <v>,,,,,,1</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="8">
         <v>10006</v>
@@ -1271,21 +1307,24 @@
       <c r="E9" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="9"/>
+      <c r="F9" s="8">
+        <v>6</v>
+      </c>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
       <c r="K9" s="9"/>
-      <c r="L9" s="10">
-        <v>3</v>
-      </c>
-      <c r="M9" t="str">
+      <c r="L9" s="9"/>
+      <c r="M9" s="10">
+        <v>3</v>
+      </c>
+      <c r="N9" t="str">
         <f t="shared" si="0"/>
         <v>,,,,,,3</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="8">
         <v>10007</v>
@@ -1299,21 +1338,24 @@
       <c r="E10" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="9"/>
+      <c r="F10" s="8">
+        <v>6</v>
+      </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
       <c r="K10" s="9"/>
-      <c r="L10" s="10">
+      <c r="L10" s="9"/>
+      <c r="M10" s="10">
         <v>5</v>
       </c>
-      <c r="M10" t="str">
+      <c r="N10" t="str">
         <f t="shared" si="0"/>
         <v>,,,,,,5</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="8">
         <v>10008</v>
@@ -1327,21 +1369,24 @@
       <c r="E11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="8">
+        <v>6</v>
+      </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
-      <c r="L11" s="10">
+      <c r="L11" s="9"/>
+      <c r="M11" s="10">
         <v>8</v>
       </c>
-      <c r="M11" t="str">
+      <c r="N11" t="str">
         <f t="shared" si="0"/>
         <v>,,,,,,8</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="8">
         <v>10009</v>
@@ -1355,21 +1400,24 @@
       <c r="E12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9">
-        <v>1</v>
-      </c>
-      <c r="H12" s="9"/>
+      <c r="F12" s="8">
+        <v>1</v>
+      </c>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9">
+        <v>1</v>
+      </c>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
       <c r="K12" s="9"/>
-      <c r="L12" s="10"/>
-      <c r="M12" t="str">
+      <c r="L12" s="9"/>
+      <c r="M12" s="10"/>
+      <c r="N12" t="str">
         <f t="shared" si="0"/>
         <v>,1,,,,,</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="8">
         <v>10010</v>
@@ -1383,21 +1431,24 @@
       <c r="E13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9">
-        <v>3</v>
-      </c>
-      <c r="H13" s="9"/>
+      <c r="F13" s="8">
+        <v>1</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9">
+        <v>3</v>
+      </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
       <c r="K13" s="9"/>
-      <c r="L13" s="10"/>
-      <c r="M13" t="str">
+      <c r="L13" s="9"/>
+      <c r="M13" s="10"/>
+      <c r="N13" t="str">
         <f t="shared" si="0"/>
         <v>,3,,,,,</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="8">
         <v>10011</v>
@@ -1411,21 +1462,24 @@
       <c r="E14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9">
+      <c r="F14" s="8">
+        <v>1</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9">
         <v>5</v>
       </c>
-      <c r="H14" s="9"/>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="10"/>
-      <c r="M14" t="str">
+      <c r="L14" s="9"/>
+      <c r="M14" s="10"/>
+      <c r="N14" t="str">
         <f t="shared" si="0"/>
         <v>,5,,,,,</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="8">
         <v>10012</v>
@@ -1439,21 +1493,24 @@
       <c r="E15" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9">
+      <c r="F15" s="8">
+        <v>1</v>
+      </c>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9">
         <v>8</v>
       </c>
-      <c r="H15" s="9"/>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
       <c r="K15" s="9"/>
-      <c r="L15" s="10"/>
-      <c r="M15" t="str">
+      <c r="L15" s="9"/>
+      <c r="M15" s="10"/>
+      <c r="N15" t="str">
         <f t="shared" si="0"/>
         <v>,8,,,,,</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="8">
         <v>10013</v>
@@ -1467,21 +1524,24 @@
       <c r="E16" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="9"/>
+      <c r="F16" s="8">
+        <v>2</v>
+      </c>
       <c r="G16" s="9"/>
-      <c r="H16" s="9">
-        <v>1</v>
-      </c>
-      <c r="I16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9">
+        <v>1</v>
+      </c>
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
-      <c r="L16" s="10"/>
-      <c r="M16" t="str">
+      <c r="L16" s="9"/>
+      <c r="M16" s="10"/>
+      <c r="N16" t="str">
         <f t="shared" si="0"/>
         <v>,,1,,,,</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="8">
         <v>10014</v>
@@ -1495,21 +1555,24 @@
       <c r="E17" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="8">
+        <v>2</v>
+      </c>
       <c r="G17" s="9"/>
-      <c r="H17" s="9">
-        <v>3</v>
-      </c>
-      <c r="I17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9">
+        <v>3</v>
+      </c>
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
-      <c r="L17" s="10"/>
-      <c r="M17" t="str">
+      <c r="L17" s="9"/>
+      <c r="M17" s="10"/>
+      <c r="N17" t="str">
         <f t="shared" si="0"/>
         <v>,,3,,,,</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="8">
         <v>10015</v>
@@ -1523,21 +1586,24 @@
       <c r="E18" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="8">
+        <v>2</v>
+      </c>
       <c r="G18" s="9"/>
-      <c r="H18" s="9">
+      <c r="H18" s="9"/>
+      <c r="I18" s="9">
         <v>5</v>
       </c>
-      <c r="I18" s="9"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
-      <c r="L18" s="10"/>
-      <c r="M18" t="str">
+      <c r="L18" s="9"/>
+      <c r="M18" s="10"/>
+      <c r="N18" t="str">
         <f t="shared" si="0"/>
         <v>,,5,,,,</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="8">
         <v>10016</v>
@@ -1551,21 +1617,24 @@
       <c r="E19" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="9"/>
+      <c r="F19" s="8">
+        <v>2</v>
+      </c>
       <c r="G19" s="9"/>
-      <c r="H19" s="9">
+      <c r="H19" s="9"/>
+      <c r="I19" s="9">
         <v>8</v>
       </c>
-      <c r="I19" s="9"/>
       <c r="J19" s="9"/>
       <c r="K19" s="9"/>
-      <c r="L19" s="10"/>
-      <c r="M19" t="str">
+      <c r="L19" s="9"/>
+      <c r="M19" s="10"/>
+      <c r="N19" t="str">
         <f t="shared" si="0"/>
         <v>,,8,,,,</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="8">
         <v>10017</v>
@@ -1579,21 +1648,24 @@
       <c r="E20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="9">
-        <v>1</v>
-      </c>
-      <c r="G20" s="9"/>
+      <c r="F20" s="8">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
+        <v>1</v>
+      </c>
       <c r="H20" s="9"/>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
-      <c r="L20" s="10"/>
-      <c r="M20" t="str">
+      <c r="L20" s="9"/>
+      <c r="M20" s="10"/>
+      <c r="N20" t="str">
         <f t="shared" si="0"/>
         <v>1,,,,,,</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="8">
         <v>10018</v>
@@ -1607,21 +1679,24 @@
       <c r="E21" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="9">
-        <v>3</v>
-      </c>
-      <c r="G21" s="9"/>
+      <c r="F21" s="8">
+        <v>0</v>
+      </c>
+      <c r="G21" s="9">
+        <v>3</v>
+      </c>
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
       <c r="K21" s="9"/>
-      <c r="L21" s="10"/>
-      <c r="M21" t="str">
+      <c r="L21" s="9"/>
+      <c r="M21" s="10"/>
+      <c r="N21" t="str">
         <f t="shared" si="0"/>
         <v>3,,,,,,</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="8">
         <v>10019</v>
@@ -1635,21 +1710,24 @@
       <c r="E22" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="8">
+        <v>0</v>
+      </c>
+      <c r="G22" s="9">
         <v>5</v>
       </c>
-      <c r="G22" s="9"/>
       <c r="H22" s="9"/>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
-      <c r="L22" s="10"/>
-      <c r="M22" t="str">
+      <c r="L22" s="9"/>
+      <c r="M22" s="10"/>
+      <c r="N22" t="str">
         <f t="shared" si="0"/>
         <v>5,,,,,,</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
       <c r="B23" s="8">
         <v>10020</v>
@@ -1663,21 +1741,24 @@
       <c r="E23" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="8">
+        <v>0</v>
+      </c>
+      <c r="G23" s="9">
         <v>8</v>
       </c>
-      <c r="G23" s="9"/>
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
       <c r="K23" s="9"/>
-      <c r="L23" s="10"/>
-      <c r="M23" t="str">
+      <c r="L23" s="9"/>
+      <c r="M23" s="10"/>
+      <c r="N23" t="str">
         <f t="shared" si="0"/>
         <v>8,,,,,,</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
       <c r="B24" s="8">
         <v>10021</v>
@@ -1691,21 +1772,24 @@
       <c r="E24" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F24" s="9"/>
+      <c r="F24" s="8">
+        <v>3</v>
+      </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
-      <c r="I24" s="9">
-        <v>1</v>
-      </c>
-      <c r="J24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9">
+        <v>1</v>
+      </c>
       <c r="K24" s="9"/>
-      <c r="L24" s="10"/>
-      <c r="M24" t="str">
+      <c r="L24" s="9"/>
+      <c r="M24" s="10"/>
+      <c r="N24" t="str">
         <f t="shared" si="0"/>
         <v>,,,1,,,</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
       <c r="B25" s="8">
         <v>10022</v>
@@ -1719,21 +1803,24 @@
       <c r="E25" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F25" s="9"/>
+      <c r="F25" s="8">
+        <v>3</v>
+      </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
-      <c r="I25" s="9">
-        <v>3</v>
-      </c>
-      <c r="J25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9">
+        <v>3</v>
+      </c>
       <c r="K25" s="9"/>
-      <c r="L25" s="10"/>
-      <c r="M25" t="str">
+      <c r="L25" s="9"/>
+      <c r="M25" s="10"/>
+      <c r="N25" t="str">
         <f t="shared" si="0"/>
         <v>,,,3,,,</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
       <c r="B26" s="8">
         <v>10023</v>
@@ -1747,21 +1834,24 @@
       <c r="E26" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F26" s="9"/>
+      <c r="F26" s="8">
+        <v>3</v>
+      </c>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
-      <c r="I26" s="9">
+      <c r="I26" s="9"/>
+      <c r="J26" s="9">
         <v>5</v>
       </c>
-      <c r="J26" s="9"/>
       <c r="K26" s="9"/>
-      <c r="L26" s="10"/>
-      <c r="M26" t="str">
+      <c r="L26" s="9"/>
+      <c r="M26" s="10"/>
+      <c r="N26" t="str">
         <f t="shared" si="0"/>
         <v>,,,5,,,</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
       <c r="B27" s="8">
         <v>10024</v>
@@ -1775,21 +1865,24 @@
       <c r="E27" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F27" s="9"/>
+      <c r="F27" s="8">
+        <v>3</v>
+      </c>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
-      <c r="I27" s="9">
+      <c r="I27" s="9"/>
+      <c r="J27" s="9">
         <v>8</v>
       </c>
-      <c r="J27" s="9"/>
       <c r="K27" s="9"/>
-      <c r="L27" s="10"/>
-      <c r="M27" t="str">
+      <c r="L27" s="9"/>
+      <c r="M27" s="10"/>
+      <c r="N27" t="str">
         <f t="shared" si="0"/>
         <v>,,,8,,,</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="8">
         <v>10025</v>
@@ -1803,21 +1896,24 @@
       <c r="E28" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F28" s="9"/>
+      <c r="F28" s="8">
+        <v>6</v>
+      </c>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
       <c r="K28" s="9"/>
-      <c r="L28" s="10">
-        <v>1</v>
-      </c>
-      <c r="M28" t="str">
+      <c r="L28" s="9"/>
+      <c r="M28" s="10">
+        <v>1</v>
+      </c>
+      <c r="N28" t="str">
         <f t="shared" si="0"/>
         <v>,,,,,,1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="8">
         <v>10026</v>
@@ -1831,21 +1927,24 @@
       <c r="E29" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F29" s="9"/>
+      <c r="F29" s="8">
+        <v>6</v>
+      </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
       <c r="K29" s="9"/>
-      <c r="L29" s="10">
-        <v>3</v>
-      </c>
-      <c r="M29" t="str">
+      <c r="L29" s="9"/>
+      <c r="M29" s="10">
+        <v>3</v>
+      </c>
+      <c r="N29" t="str">
         <f t="shared" si="0"/>
         <v>,,,,,,3</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="8">
         <v>10027</v>
@@ -1859,21 +1958,24 @@
       <c r="E30" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F30" s="9"/>
+      <c r="F30" s="8">
+        <v>6</v>
+      </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
-      <c r="L30" s="10">
+      <c r="L30" s="9"/>
+      <c r="M30" s="10">
         <v>5</v>
       </c>
-      <c r="M30" t="str">
+      <c r="N30" t="str">
         <f t="shared" si="0"/>
         <v>,,,,,,5</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="8">
         <v>10028</v>
@@ -1887,21 +1989,24 @@
       <c r="E31" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F31" s="9"/>
+      <c r="F31" s="8">
+        <v>6</v>
+      </c>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
-      <c r="L31" s="10">
+      <c r="L31" s="9"/>
+      <c r="M31" s="10">
         <v>8</v>
       </c>
-      <c r="M31" t="str">
+      <c r="N31" t="str">
         <f t="shared" si="0"/>
         <v>,,,,,,8</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" s="8">
         <v>10029</v>
@@ -1915,21 +2020,24 @@
       <c r="E32" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F32" s="9"/>
+      <c r="F32" s="8">
+        <v>3</v>
+      </c>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
-      <c r="I32" s="9">
-        <v>1</v>
-      </c>
-      <c r="J32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9">
+        <v>1</v>
+      </c>
       <c r="K32" s="9"/>
-      <c r="L32" s="10"/>
-      <c r="M32" t="str">
+      <c r="L32" s="9"/>
+      <c r="M32" s="10"/>
+      <c r="N32" t="str">
         <f t="shared" si="0"/>
         <v>,,,1,,,</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="8">
         <v>10030</v>
@@ -1943,21 +2051,24 @@
       <c r="E33" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F33" s="9"/>
+      <c r="F33" s="8">
+        <v>3</v>
+      </c>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
-      <c r="I33" s="9">
-        <v>3</v>
-      </c>
-      <c r="J33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9">
+        <v>3</v>
+      </c>
       <c r="K33" s="9"/>
-      <c r="L33" s="10"/>
-      <c r="M33" t="str">
+      <c r="L33" s="9"/>
+      <c r="M33" s="10"/>
+      <c r="N33" t="str">
         <f t="shared" si="0"/>
         <v>,,,3,,,</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="8">
         <v>10031</v>
@@ -1971,21 +2082,24 @@
       <c r="E34" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F34" s="9"/>
+      <c r="F34" s="8">
+        <v>3</v>
+      </c>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
-      <c r="I34" s="9">
+      <c r="I34" s="9"/>
+      <c r="J34" s="9">
         <v>5</v>
       </c>
-      <c r="J34" s="9"/>
       <c r="K34" s="9"/>
-      <c r="L34" s="10"/>
-      <c r="M34" t="str">
+      <c r="L34" s="9"/>
+      <c r="M34" s="10"/>
+      <c r="N34" t="str">
         <f t="shared" si="0"/>
         <v>,,,5,,,</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="B35" s="8">
         <v>10032</v>
@@ -1999,21 +2113,24 @@
       <c r="E35" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F35" s="9"/>
+      <c r="F35" s="8">
+        <v>3</v>
+      </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
-      <c r="I35" s="9">
+      <c r="I35" s="9"/>
+      <c r="J35" s="9">
         <v>8</v>
       </c>
-      <c r="J35" s="9"/>
       <c r="K35" s="9"/>
-      <c r="L35" s="10"/>
-      <c r="M35" t="str">
+      <c r="L35" s="9"/>
+      <c r="M35" s="10"/>
+      <c r="N35" t="str">
         <f t="shared" si="0"/>
         <v>,,,8,,,</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
       <c r="B36" s="8">
         <v>10033</v>
@@ -2027,21 +2144,24 @@
       <c r="E36" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F36" s="9"/>
+      <c r="F36" s="8">
+        <v>5</v>
+      </c>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
-      <c r="K36" s="9">
-        <v>1</v>
-      </c>
-      <c r="L36" s="10"/>
-      <c r="M36" t="str">
+      <c r="K36" s="9"/>
+      <c r="L36" s="9">
+        <v>1</v>
+      </c>
+      <c r="M36" s="10"/>
+      <c r="N36" t="str">
         <f t="shared" si="0"/>
         <v>,,,,,1,</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="B37" s="8">
         <v>10034</v>
@@ -2055,21 +2175,24 @@
       <c r="E37" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F37" s="9"/>
+      <c r="F37" s="8">
+        <v>5</v>
+      </c>
       <c r="G37" s="9"/>
       <c r="H37" s="9"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
-      <c r="K37" s="9">
-        <v>3</v>
-      </c>
-      <c r="L37" s="10"/>
-      <c r="M37" t="str">
+      <c r="K37" s="9"/>
+      <c r="L37" s="9">
+        <v>3</v>
+      </c>
+      <c r="M37" s="10"/>
+      <c r="N37" t="str">
         <f t="shared" si="0"/>
         <v>,,,,,3,</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
       <c r="B38" s="8">
         <v>10035</v>
@@ -2083,21 +2206,24 @@
       <c r="E38" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F38" s="9"/>
+      <c r="F38" s="8">
+        <v>5</v>
+      </c>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
-      <c r="K38" s="9">
+      <c r="K38" s="9"/>
+      <c r="L38" s="9">
         <v>5</v>
       </c>
-      <c r="L38" s="10"/>
-      <c r="M38" t="str">
+      <c r="M38" s="10"/>
+      <c r="N38" t="str">
         <f t="shared" si="0"/>
         <v>,,,,,5,</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
       <c r="B39" s="8">
         <v>10036</v>
@@ -2111,21 +2237,24 @@
       <c r="E39" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F39" s="9"/>
+      <c r="F39" s="8">
+        <v>4</v>
+      </c>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
-      <c r="J39" s="9">
-        <v>1</v>
-      </c>
-      <c r="K39" s="9"/>
-      <c r="L39" s="10"/>
-      <c r="M39" t="str">
+      <c r="J39" s="9"/>
+      <c r="K39" s="9">
+        <v>1</v>
+      </c>
+      <c r="L39" s="9"/>
+      <c r="M39" s="10"/>
+      <c r="N39" t="str">
         <f t="shared" si="0"/>
         <v>,,,,1,,</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
       <c r="B40" s="8">
         <v>10037</v>
@@ -2139,21 +2268,24 @@
       <c r="E40" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F40" s="9"/>
+      <c r="F40" s="8">
+        <v>4</v>
+      </c>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
-      <c r="J40" s="9">
-        <v>3</v>
-      </c>
-      <c r="K40" s="9"/>
-      <c r="L40" s="10"/>
-      <c r="M40" t="str">
+      <c r="J40" s="9"/>
+      <c r="K40" s="9">
+        <v>3</v>
+      </c>
+      <c r="L40" s="9"/>
+      <c r="M40" s="10"/>
+      <c r="N40" t="str">
         <f t="shared" si="0"/>
         <v>,,,,3,,</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="7"/>
       <c r="B41" s="8">
         <v>10038</v>
@@ -2167,21 +2299,24 @@
       <c r="E41" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F41" s="9"/>
+      <c r="F41" s="8">
+        <v>4</v>
+      </c>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
-      <c r="J41" s="9">
+      <c r="J41" s="9"/>
+      <c r="K41" s="9">
         <v>5</v>
       </c>
-      <c r="K41" s="9"/>
-      <c r="L41" s="10"/>
-      <c r="M41" t="str">
+      <c r="L41" s="9"/>
+      <c r="M41" s="10"/>
+      <c r="N41" t="str">
         <f t="shared" si="0"/>
         <v>,,,,5,,</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
       <c r="B42" s="8">
         <v>10039</v>
@@ -2195,21 +2330,24 @@
       <c r="E42" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F42" s="9"/>
+      <c r="F42" s="8">
+        <v>4</v>
+      </c>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
       <c r="I42" s="9"/>
-      <c r="J42" s="9">
+      <c r="J42" s="9"/>
+      <c r="K42" s="9">
         <v>8</v>
       </c>
-      <c r="K42" s="9"/>
-      <c r="L42" s="10"/>
-      <c r="M42" t="str">
+      <c r="L42" s="9"/>
+      <c r="M42" s="10"/>
+      <c r="N42" t="str">
         <f t="shared" si="0"/>
         <v>,,,,8,,</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
       <c r="B43" s="8">
         <v>10040</v>
@@ -2223,21 +2361,24 @@
       <c r="E43" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F43" s="9"/>
+      <c r="F43" s="8">
+        <v>3</v>
+      </c>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
-      <c r="I43" s="9">
-        <v>1</v>
-      </c>
-      <c r="J43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9">
+        <v>1</v>
+      </c>
       <c r="K43" s="9"/>
-      <c r="L43" s="10"/>
-      <c r="M43" t="str">
+      <c r="L43" s="9"/>
+      <c r="M43" s="10"/>
+      <c r="N43" t="str">
         <f t="shared" si="0"/>
         <v>,,,1,,,</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
       <c r="B44" s="8">
         <v>10041</v>
@@ -2251,21 +2392,24 @@
       <c r="E44" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F44" s="9"/>
+      <c r="F44" s="8">
+        <v>3</v>
+      </c>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
-      <c r="I44" s="9">
-        <v>3</v>
-      </c>
-      <c r="J44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9">
+        <v>3</v>
+      </c>
       <c r="K44" s="9"/>
-      <c r="L44" s="10"/>
-      <c r="M44" t="str">
+      <c r="L44" s="9"/>
+      <c r="M44" s="10"/>
+      <c r="N44" t="str">
         <f t="shared" si="0"/>
         <v>,,,3,,,</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="7"/>
       <c r="B45" s="8">
         <v>10042</v>
@@ -2279,21 +2423,24 @@
       <c r="E45" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F45" s="9"/>
+      <c r="F45" s="8">
+        <v>3</v>
+      </c>
       <c r="G45" s="9"/>
       <c r="H45" s="9"/>
-      <c r="I45" s="9">
+      <c r="I45" s="9"/>
+      <c r="J45" s="9">
         <v>5</v>
       </c>
-      <c r="J45" s="9"/>
       <c r="K45" s="9"/>
-      <c r="L45" s="10"/>
-      <c r="M45" t="str">
+      <c r="L45" s="9"/>
+      <c r="M45" s="10"/>
+      <c r="N45" t="str">
         <f t="shared" si="0"/>
         <v>,,,5,,,</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
       <c r="B46" s="8">
         <v>10043</v>
@@ -2307,25 +2454,28 @@
       <c r="E46" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F46" s="9"/>
+      <c r="F46" s="8">
+        <v>3</v>
+      </c>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
-      <c r="I46" s="9">
+      <c r="I46" s="9"/>
+      <c r="J46" s="9">
         <v>8</v>
       </c>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9">
-        <v>1</v>
-      </c>
-      <c r="L46" s="10">
-        <v>1</v>
-      </c>
-      <c r="M46" t="str">
+      <c r="K46" s="9"/>
+      <c r="L46" s="9">
+        <v>1</v>
+      </c>
+      <c r="M46" s="10">
+        <v>1</v>
+      </c>
+      <c r="N46" t="str">
         <f t="shared" si="0"/>
         <v>,,,8,,1,1</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="7"/>
       <c r="B47" s="8">
         <v>10044</v>
@@ -2339,25 +2489,28 @@
       <c r="E47" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F47" s="9"/>
+      <c r="F47" s="8">
+        <v>5</v>
+      </c>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
-      <c r="J47" s="9">
-        <v>1</v>
-      </c>
+      <c r="J47" s="9"/>
       <c r="K47" s="9">
-        <v>2</v>
-      </c>
-      <c r="L47" s="10">
-        <v>1</v>
-      </c>
-      <c r="M47" t="str">
+        <v>1</v>
+      </c>
+      <c r="L47" s="9">
+        <v>2</v>
+      </c>
+      <c r="M47" s="10">
+        <v>1</v>
+      </c>
+      <c r="N47" t="str">
         <f t="shared" si="0"/>
         <v>,,,,1,2,1</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
       <c r="B48" s="8">
         <v>10045</v>
@@ -2371,25 +2524,28 @@
       <c r="E48" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F48" s="9"/>
+      <c r="F48" s="8">
+        <v>5</v>
+      </c>
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
-      <c r="J48" s="9">
-        <v>2</v>
-      </c>
+      <c r="J48" s="9"/>
       <c r="K48" s="9">
-        <v>3</v>
-      </c>
-      <c r="L48" s="10">
-        <v>2</v>
-      </c>
-      <c r="M48" t="str">
+        <v>2</v>
+      </c>
+      <c r="L48" s="9">
+        <v>3</v>
+      </c>
+      <c r="M48" s="10">
+        <v>2</v>
+      </c>
+      <c r="N48" t="str">
         <f t="shared" si="0"/>
         <v>,,,,2,3,2</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
       <c r="B49" s="8">
         <v>10046</v>
@@ -2403,25 +2559,28 @@
       <c r="E49" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F49" s="9"/>
+      <c r="F49" s="8">
+        <v>5</v>
+      </c>
       <c r="G49" s="9"/>
       <c r="H49" s="9"/>
       <c r="I49" s="9"/>
-      <c r="J49" s="9">
-        <v>3</v>
-      </c>
+      <c r="J49" s="9"/>
       <c r="K49" s="9">
+        <v>3</v>
+      </c>
+      <c r="L49" s="9">
         <v>5</v>
       </c>
-      <c r="L49" s="10">
-        <v>3</v>
-      </c>
-      <c r="M49" t="str">
+      <c r="M49" s="10">
+        <v>3</v>
+      </c>
+      <c r="N49" t="str">
         <f t="shared" si="0"/>
         <v>,,,,3,5,3</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="7"/>
       <c r="B50" s="8">
         <v>10047</v>
@@ -2435,25 +2594,28 @@
       <c r="E50" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F50" s="9"/>
+      <c r="F50" s="8">
+        <v>5</v>
+      </c>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
-      <c r="J50" s="9">
+      <c r="J50" s="9"/>
+      <c r="K50" s="9">
         <v>5</v>
       </c>
-      <c r="K50" s="9">
+      <c r="L50" s="9">
         <v>8</v>
       </c>
-      <c r="L50" s="10">
+      <c r="M50" s="10">
         <v>5</v>
       </c>
-      <c r="M50" t="str">
+      <c r="N50" t="str">
         <f t="shared" si="0"/>
         <v>,,,,5,8,5</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
       <c r="B51" s="8">
         <v>10048</v>
@@ -2467,21 +2629,24 @@
       <c r="E51" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F51" s="9"/>
+      <c r="F51" s="8">
+        <v>4</v>
+      </c>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
-      <c r="J51" s="9">
-        <v>1</v>
-      </c>
-      <c r="K51" s="9"/>
-      <c r="L51" s="10"/>
-      <c r="M51" t="str">
+      <c r="J51" s="9"/>
+      <c r="K51" s="9">
+        <v>1</v>
+      </c>
+      <c r="L51" s="9"/>
+      <c r="M51" s="10"/>
+      <c r="N51" t="str">
         <f t="shared" si="0"/>
         <v>,,,,1,,</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
       <c r="B52" s="8">
         <v>10049</v>
@@ -2495,21 +2660,24 @@
       <c r="E52" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F52" s="9"/>
+      <c r="F52" s="8">
+        <v>4</v>
+      </c>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
-      <c r="J52" s="9">
-        <v>3</v>
-      </c>
-      <c r="K52" s="9"/>
-      <c r="L52" s="10"/>
-      <c r="M52" t="str">
+      <c r="J52" s="9"/>
+      <c r="K52" s="9">
+        <v>3</v>
+      </c>
+      <c r="L52" s="9"/>
+      <c r="M52" s="10"/>
+      <c r="N52" t="str">
         <f t="shared" si="0"/>
         <v>,,,,3,,</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
       <c r="B53" s="8">
         <v>10050</v>
@@ -2523,21 +2691,24 @@
       <c r="E53" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="F53" s="9"/>
+      <c r="F53" s="8">
+        <v>2</v>
+      </c>
       <c r="G53" s="9"/>
-      <c r="H53" s="9">
-        <v>3</v>
-      </c>
-      <c r="I53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9">
+        <v>3</v>
+      </c>
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
-      <c r="L53" s="10"/>
-      <c r="M53" t="str">
+      <c r="L53" s="9"/>
+      <c r="M53" s="10"/>
+      <c r="N53" t="str">
         <f t="shared" si="0"/>
         <v>,,3,,,,</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="7"/>
       <c r="B54" s="8">
         <v>10051</v>
@@ -2551,21 +2722,24 @@
       <c r="E54" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F54" s="9">
-        <v>3</v>
-      </c>
-      <c r="G54" s="9"/>
+      <c r="F54" s="8">
+        <v>0</v>
+      </c>
+      <c r="G54" s="9">
+        <v>3</v>
+      </c>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
       <c r="K54" s="9"/>
-      <c r="L54" s="10"/>
-      <c r="M54" t="str">
+      <c r="L54" s="9"/>
+      <c r="M54" s="10"/>
+      <c r="N54" t="str">
         <f t="shared" si="0"/>
         <v>3,,,,,,</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
       <c r="B55" s="8">
         <v>10052</v>
@@ -2579,21 +2753,24 @@
       <c r="E55" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="F55" s="9"/>
+      <c r="F55" s="8">
+        <v>2</v>
+      </c>
       <c r="G55" s="9"/>
-      <c r="H55" s="9">
-        <v>3</v>
-      </c>
-      <c r="I55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9">
+        <v>3</v>
+      </c>
       <c r="J55" s="9"/>
       <c r="K55" s="9"/>
-      <c r="L55" s="10"/>
-      <c r="M55" t="str">
+      <c r="L55" s="9"/>
+      <c r="M55" s="10"/>
+      <c r="N55" t="str">
         <f t="shared" si="0"/>
         <v>,,3,,,,</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="7"/>
       <c r="B56" s="8">
         <v>10053</v>
@@ -2607,21 +2784,24 @@
       <c r="E56" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F56" s="9"/>
+      <c r="F56" s="8">
+        <v>3</v>
+      </c>
       <c r="G56" s="9"/>
       <c r="H56" s="9"/>
-      <c r="I56" s="9">
-        <v>3</v>
-      </c>
-      <c r="J56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9">
+        <v>3</v>
+      </c>
       <c r="K56" s="9"/>
-      <c r="L56" s="10"/>
-      <c r="M56" t="str">
+      <c r="L56" s="9"/>
+      <c r="M56" s="10"/>
+      <c r="N56" t="str">
         <f t="shared" si="0"/>
         <v>,,,3,,,</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
       <c r="B57" s="8">
         <v>10054</v>
@@ -2635,21 +2815,24 @@
       <c r="E57" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="F57" s="9"/>
+      <c r="F57" s="8">
+        <v>2</v>
+      </c>
       <c r="G57" s="9"/>
-      <c r="H57" s="9">
-        <v>3</v>
-      </c>
-      <c r="I57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9">
+        <v>3</v>
+      </c>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
-      <c r="L57" s="10"/>
-      <c r="M57" t="str">
+      <c r="L57" s="9"/>
+      <c r="M57" s="10"/>
+      <c r="N57" t="str">
         <f t="shared" si="0"/>
         <v>,,3,,,,</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
       <c r="B58" s="8">
         <v>10055</v>
@@ -2663,21 +2846,24 @@
       <c r="E58" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="F58" s="9"/>
+      <c r="F58" s="8">
+        <v>4</v>
+      </c>
       <c r="G58" s="9"/>
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
-      <c r="J58" s="9">
-        <v>3</v>
-      </c>
-      <c r="K58" s="9"/>
-      <c r="L58" s="10"/>
-      <c r="M58" t="str">
+      <c r="J58" s="9"/>
+      <c r="K58" s="9">
+        <v>3</v>
+      </c>
+      <c r="L58" s="9"/>
+      <c r="M58" s="10"/>
+      <c r="N58" t="str">
         <f t="shared" si="0"/>
         <v>,,,,3,,</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
       <c r="B59" s="8">
         <v>10056</v>
@@ -2691,21 +2877,24 @@
       <c r="E59" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="F59" s="9">
-        <v>3</v>
-      </c>
-      <c r="G59" s="9"/>
+      <c r="F59" s="8">
+        <v>1</v>
+      </c>
+      <c r="G59" s="9">
+        <v>3</v>
+      </c>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
       <c r="K59" s="9"/>
-      <c r="L59" s="10"/>
-      <c r="M59" t="str">
+      <c r="L59" s="9"/>
+      <c r="M59" s="10"/>
+      <c r="N59" t="str">
         <f t="shared" si="0"/>
         <v>3,,,,,,</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="7"/>
       <c r="B60" s="8">
         <v>10057</v>
@@ -2719,21 +2908,24 @@
       <c r="E60" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F60" s="9"/>
+      <c r="F60" s="8">
+        <v>6</v>
+      </c>
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
       <c r="K60" s="9"/>
-      <c r="L60" s="10">
-        <v>3</v>
-      </c>
-      <c r="M60" t="str">
+      <c r="L60" s="9"/>
+      <c r="M60" s="10">
+        <v>3</v>
+      </c>
+      <c r="N60" t="str">
         <f t="shared" si="0"/>
         <v>,,,,,,3</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
       <c r="B61" s="8">
         <v>10058</v>
@@ -2747,21 +2939,24 @@
       <c r="E61" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F61" s="9"/>
+      <c r="F61" s="8">
+        <v>5</v>
+      </c>
       <c r="G61" s="9"/>
       <c r="H61" s="9"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
-      <c r="K61" s="9">
-        <v>3</v>
-      </c>
-      <c r="L61" s="10"/>
-      <c r="M61" t="str">
+      <c r="K61" s="9"/>
+      <c r="L61" s="9">
+        <v>3</v>
+      </c>
+      <c r="M61" s="10"/>
+      <c r="N61" t="str">
         <f t="shared" si="0"/>
         <v>,,,,,3,</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="7"/>
       <c r="B62" s="8">
         <v>10059</v>
@@ -2775,21 +2970,24 @@
       <c r="E62" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="F62" s="9"/>
+      <c r="F62" s="8">
+        <v>4</v>
+      </c>
       <c r="G62" s="9"/>
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
-      <c r="J62" s="9">
-        <v>3</v>
-      </c>
-      <c r="K62" s="9"/>
-      <c r="L62" s="10"/>
-      <c r="M62" t="str">
+      <c r="J62" s="9"/>
+      <c r="K62" s="9">
+        <v>3</v>
+      </c>
+      <c r="L62" s="9"/>
+      <c r="M62" s="10"/>
+      <c r="N62" t="str">
         <f t="shared" si="0"/>
         <v>,,,,3,,</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="7"/>
       <c r="B63" s="8">
         <v>10060</v>
@@ -2803,21 +3001,24 @@
       <c r="E63" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="F63" s="9"/>
+      <c r="F63" s="8">
+        <v>4</v>
+      </c>
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
-      <c r="J63" s="9">
+      <c r="J63" s="9"/>
+      <c r="K63" s="9">
         <v>0</v>
       </c>
-      <c r="K63" s="9"/>
-      <c r="L63" s="10"/>
-      <c r="M63" t="str">
+      <c r="L63" s="9"/>
+      <c r="M63" s="10"/>
+      <c r="N63" t="str">
         <f t="shared" si="0"/>
         <v>,,,,0,,</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="7"/>
       <c r="B64" s="8">
         <v>10061</v>
@@ -2831,21 +3032,24 @@
       <c r="E64" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="F64" s="9"/>
+      <c r="F64" s="8">
+        <v>2</v>
+      </c>
       <c r="G64" s="9"/>
-      <c r="H64" s="9">
+      <c r="H64" s="9"/>
+      <c r="I64" s="9">
         <v>8</v>
       </c>
-      <c r="I64" s="9"/>
       <c r="J64" s="9"/>
       <c r="K64" s="9"/>
-      <c r="L64" s="10"/>
-      <c r="M64" t="str">
+      <c r="L64" s="9"/>
+      <c r="M64" s="10"/>
+      <c r="N64" t="str">
         <f t="shared" si="0"/>
         <v>,,8,,,,</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
       <c r="B65" s="8">
         <v>10062</v>
@@ -2859,21 +3063,24 @@
       <c r="E65" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="F65" s="9">
+      <c r="F65" s="8">
+        <v>0</v>
+      </c>
+      <c r="G65" s="9">
         <v>8</v>
       </c>
-      <c r="G65" s="9"/>
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
       <c r="K65" s="9"/>
-      <c r="L65" s="10"/>
-      <c r="M65" t="str">
+      <c r="L65" s="9"/>
+      <c r="M65" s="10"/>
+      <c r="N65" t="str">
         <f t="shared" si="0"/>
         <v>8,,,,,,</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="7"/>
       <c r="B66" s="8">
         <v>10063</v>
@@ -2887,21 +3094,24 @@
       <c r="E66" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="F66" s="9"/>
+      <c r="F66" s="8">
+        <v>2</v>
+      </c>
       <c r="G66" s="9"/>
-      <c r="H66" s="9">
+      <c r="H66" s="9"/>
+      <c r="I66" s="9">
         <v>8</v>
       </c>
-      <c r="I66" s="9"/>
       <c r="J66" s="9"/>
       <c r="K66" s="9"/>
-      <c r="L66" s="10"/>
-      <c r="M66" t="str">
+      <c r="L66" s="9"/>
+      <c r="M66" s="10"/>
+      <c r="N66" t="str">
         <f t="shared" si="0"/>
         <v>,,8,,,,</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="7"/>
       <c r="B67" s="8">
         <v>10064</v>
@@ -2915,21 +3125,24 @@
       <c r="E67" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F67" s="9"/>
+      <c r="F67" s="8">
+        <v>3</v>
+      </c>
       <c r="G67" s="9"/>
       <c r="H67" s="9"/>
-      <c r="I67" s="9">
+      <c r="I67" s="9"/>
+      <c r="J67" s="9">
         <v>8</v>
       </c>
-      <c r="J67" s="9"/>
       <c r="K67" s="9"/>
-      <c r="L67" s="10"/>
-      <c r="M67" t="str">
+      <c r="L67" s="9"/>
+      <c r="M67" s="10"/>
+      <c r="N67" t="str">
         <f t="shared" si="0"/>
         <v>,,,8,,,</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
       <c r="B68" s="8">
         <v>10065</v>
@@ -2943,21 +3156,24 @@
       <c r="E68" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="F68" s="9"/>
+      <c r="F68" s="8">
+        <v>2</v>
+      </c>
       <c r="G68" s="9"/>
-      <c r="H68" s="9">
+      <c r="H68" s="9"/>
+      <c r="I68" s="9">
         <v>8</v>
       </c>
-      <c r="I68" s="9"/>
       <c r="J68" s="9"/>
       <c r="K68" s="9"/>
-      <c r="L68" s="10"/>
-      <c r="M68" t="str">
+      <c r="L68" s="9"/>
+      <c r="M68" s="10"/>
+      <c r="N68" t="str">
         <f t="shared" si="0"/>
         <v>,,8,,,,</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="7"/>
       <c r="B69" s="8">
         <v>10066</v>
@@ -2971,21 +3187,24 @@
       <c r="E69" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F69" s="9"/>
+      <c r="F69" s="8">
+        <v>4</v>
+      </c>
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
-      <c r="J69" s="9">
+      <c r="J69" s="9"/>
+      <c r="K69" s="9">
         <v>8</v>
       </c>
-      <c r="K69" s="9"/>
-      <c r="L69" s="10"/>
-      <c r="M69" t="str">
-        <f t="shared" ref="M69:M86" si="1">F69&amp;$N$1&amp;G69&amp;$N$1&amp;H69&amp;$N$1&amp;I69&amp;$N$1&amp;J69&amp;$N$1&amp;K69&amp;$N$1&amp;L69</f>
+      <c r="L69" s="9"/>
+      <c r="M69" s="10"/>
+      <c r="N69" t="str">
+        <f t="shared" ref="N69:N86" si="1">G69&amp;$O$1&amp;H69&amp;$O$1&amp;I69&amp;$O$1&amp;J69&amp;$O$1&amp;K69&amp;$O$1&amp;L69&amp;$O$1&amp;M69</f>
         <v>,,,,8,,</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="7"/>
       <c r="B70" s="8">
         <v>10067</v>
@@ -2999,21 +3218,24 @@
       <c r="E70" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9">
+      <c r="F70" s="8">
+        <v>1</v>
+      </c>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9">
         <v>8</v>
       </c>
-      <c r="H70" s="9"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
       <c r="K70" s="9"/>
-      <c r="L70" s="10"/>
-      <c r="M70" t="str">
+      <c r="L70" s="9"/>
+      <c r="M70" s="10"/>
+      <c r="N70" t="str">
         <f t="shared" si="1"/>
         <v>,8,,,,,</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
       <c r="B71" s="8">
         <v>10068</v>
@@ -3027,21 +3249,24 @@
       <c r="E71" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F71" s="9"/>
+      <c r="F71" s="8">
+        <v>6</v>
+      </c>
       <c r="G71" s="9"/>
       <c r="H71" s="9"/>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
       <c r="K71" s="9"/>
-      <c r="L71" s="10">
+      <c r="L71" s="9"/>
+      <c r="M71" s="10">
         <v>8</v>
       </c>
-      <c r="M71" t="str">
+      <c r="N71" t="str">
         <f t="shared" si="1"/>
         <v>,,,,,,8</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
       <c r="B72" s="8">
         <v>10069</v>
@@ -3055,21 +3280,24 @@
       <c r="E72" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="F72" s="9"/>
+      <c r="F72" s="8">
+        <v>5</v>
+      </c>
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
-      <c r="K72" s="9">
+      <c r="K72" s="9"/>
+      <c r="L72" s="9">
         <v>8</v>
       </c>
-      <c r="L72" s="10"/>
-      <c r="M72" t="str">
+      <c r="M72" s="10"/>
+      <c r="N72" t="str">
         <f t="shared" si="1"/>
         <v>,,,,,8,</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="7"/>
       <c r="B73" s="8">
         <v>10070</v>
@@ -3083,21 +3311,24 @@
       <c r="E73" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="F73" s="9"/>
+      <c r="F73" s="8">
+        <v>4</v>
+      </c>
       <c r="G73" s="9"/>
       <c r="H73" s="9"/>
       <c r="I73" s="9"/>
-      <c r="J73" s="9">
+      <c r="J73" s="9"/>
+      <c r="K73" s="9">
         <v>8</v>
       </c>
-      <c r="K73" s="9"/>
-      <c r="L73" s="10"/>
-      <c r="M73" t="str">
+      <c r="L73" s="9"/>
+      <c r="M73" s="10"/>
+      <c r="N73" t="str">
         <f t="shared" si="1"/>
         <v>,,,,8,,</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
       <c r="B74" s="8">
         <v>10071</v>
@@ -3111,21 +3342,24 @@
       <c r="E74" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="F74" s="9"/>
+      <c r="F74" s="8">
+        <v>5</v>
+      </c>
       <c r="G74" s="9"/>
       <c r="H74" s="9"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
-      <c r="K74" s="9">
-        <v>3</v>
-      </c>
-      <c r="L74" s="10"/>
-      <c r="M74" t="str">
+      <c r="K74" s="9"/>
+      <c r="L74" s="9">
+        <v>3</v>
+      </c>
+      <c r="M74" s="10"/>
+      <c r="N74" t="str">
         <f t="shared" si="1"/>
         <v>,,,,,3,</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="7"/>
       <c r="B75" s="8">
         <v>10072</v>
@@ -3139,21 +3373,24 @@
       <c r="E75" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F75" s="9"/>
+      <c r="F75" s="8">
+        <v>6</v>
+      </c>
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
       <c r="K75" s="9"/>
-      <c r="L75" s="10">
-        <v>2</v>
-      </c>
-      <c r="M75" t="str">
+      <c r="L75" s="9"/>
+      <c r="M75" s="10">
+        <v>2</v>
+      </c>
+      <c r="N75" t="str">
         <f t="shared" si="1"/>
         <v>,,,,,,2</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="7"/>
       <c r="B76" s="8">
         <v>10073</v>
@@ -3167,8 +3404,8 @@
       <c r="E76" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F76" s="9">
-        <v>2</v>
+      <c r="F76" s="8">
+        <v>3</v>
       </c>
       <c r="G76" s="9">
         <v>2</v>
@@ -3177,17 +3414,20 @@
         <v>2</v>
       </c>
       <c r="I76" s="9">
-        <v>4</v>
-      </c>
-      <c r="J76" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="J76" s="9">
+        <v>4</v>
+      </c>
       <c r="K76" s="9"/>
-      <c r="L76" s="10"/>
-      <c r="M76" t="str">
+      <c r="L76" s="9"/>
+      <c r="M76" s="10"/>
+      <c r="N76" t="str">
         <f t="shared" si="1"/>
         <v>2,2,2,4,,,</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="7"/>
       <c r="B77" s="8">
         <v>10074</v>
@@ -3201,23 +3441,26 @@
       <c r="E77" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F77" s="9"/>
+      <c r="F77" s="8">
+        <v>5</v>
+      </c>
       <c r="G77" s="9"/>
       <c r="H77" s="9"/>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
-      <c r="K77" s="9">
-        <v>3</v>
-      </c>
-      <c r="L77" s="10">
-        <v>2</v>
-      </c>
-      <c r="M77" t="str">
+      <c r="K77" s="9"/>
+      <c r="L77" s="9">
+        <v>3</v>
+      </c>
+      <c r="M77" s="10">
+        <v>2</v>
+      </c>
+      <c r="N77" t="str">
         <f t="shared" si="1"/>
         <v>,,,,,3,2</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="7"/>
       <c r="B78" s="8">
         <v>10075</v>
@@ -3231,23 +3474,26 @@
       <c r="E78" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="F78" s="9"/>
+      <c r="F78" s="8">
+        <v>6</v>
+      </c>
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
-      <c r="I78" s="9">
-        <v>2</v>
-      </c>
-      <c r="J78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9">
+        <v>2</v>
+      </c>
       <c r="K78" s="9"/>
-      <c r="L78" s="10">
-        <v>3</v>
-      </c>
-      <c r="M78" t="str">
+      <c r="L78" s="9"/>
+      <c r="M78" s="10">
+        <v>3</v>
+      </c>
+      <c r="N78" t="str">
         <f t="shared" si="1"/>
         <v>,,,2,,,3</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="7"/>
       <c r="B79" s="8">
         <v>10076</v>
@@ -3261,23 +3507,26 @@
       <c r="E79" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9">
-        <v>2</v>
-      </c>
-      <c r="H79" s="9"/>
+      <c r="F79" s="8">
+        <v>6</v>
+      </c>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9">
+        <v>2</v>
+      </c>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
       <c r="K79" s="9"/>
-      <c r="L79" s="10">
-        <v>3</v>
-      </c>
-      <c r="M79" t="str">
+      <c r="L79" s="9"/>
+      <c r="M79" s="10">
+        <v>3</v>
+      </c>
+      <c r="N79" t="str">
         <f t="shared" si="1"/>
         <v>,2,,,,,3</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80" s="7"/>
       <c r="B80" s="8">
         <v>10077</v>
@@ -3291,23 +3540,26 @@
       <c r="E80" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="F80" s="9">
-        <v>3</v>
-      </c>
-      <c r="G80" s="9"/>
+      <c r="F80" s="8">
+        <v>0</v>
+      </c>
+      <c r="G80" s="9">
+        <v>3</v>
+      </c>
       <c r="H80" s="9"/>
       <c r="I80" s="9"/>
-      <c r="J80" s="9">
-        <v>2</v>
-      </c>
-      <c r="K80" s="9"/>
-      <c r="L80" s="10"/>
-      <c r="M80" t="str">
+      <c r="J80" s="9"/>
+      <c r="K80" s="9">
+        <v>2</v>
+      </c>
+      <c r="L80" s="9"/>
+      <c r="M80" s="10"/>
+      <c r="N80" t="str">
         <f t="shared" si="1"/>
         <v>3,,,,2,,</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81" s="7"/>
       <c r="B81" s="8">
         <v>10078</v>
@@ -3321,23 +3573,26 @@
       <c r="E81" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="F81" s="9">
-        <v>3</v>
-      </c>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9">
+      <c r="F81" s="8">
+        <v>2</v>
+      </c>
+      <c r="G81" s="9">
+        <v>3</v>
+      </c>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9">
         <v>5</v>
       </c>
-      <c r="I81" s="9"/>
       <c r="J81" s="9"/>
       <c r="K81" s="9"/>
-      <c r="L81" s="10"/>
-      <c r="M81" t="str">
+      <c r="L81" s="9"/>
+      <c r="M81" s="10"/>
+      <c r="N81" t="str">
         <f t="shared" si="1"/>
         <v>3,,5,,,,</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82" s="7"/>
       <c r="B82" s="8">
         <v>10079</v>
@@ -3351,25 +3606,28 @@
       <c r="E82" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9">
-        <v>2</v>
-      </c>
-      <c r="H82" s="9"/>
+      <c r="F82" s="8">
+        <v>5</v>
+      </c>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9">
+        <v>2</v>
+      </c>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
-      <c r="K82" s="9">
-        <v>3</v>
-      </c>
-      <c r="L82" s="10">
-        <v>1</v>
-      </c>
-      <c r="M82" t="str">
+      <c r="K82" s="9"/>
+      <c r="L82" s="9">
+        <v>3</v>
+      </c>
+      <c r="M82" s="10">
+        <v>1</v>
+      </c>
+      <c r="N82" t="str">
         <f t="shared" si="1"/>
         <v>,2,,,,3,1</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83" s="7"/>
       <c r="B83" s="8">
         <v>10080</v>
@@ -3383,25 +3641,28 @@
       <c r="E83" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F83" s="9">
+      <c r="F83" s="8">
+        <v>0</v>
+      </c>
+      <c r="G83" s="9">
         <v>5</v>
       </c>
-      <c r="G83" s="9"/>
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
-      <c r="K83" s="9">
-        <v>2</v>
-      </c>
-      <c r="L83" s="10">
-        <v>2</v>
-      </c>
-      <c r="M83" t="str">
+      <c r="K83" s="9"/>
+      <c r="L83" s="9">
+        <v>2</v>
+      </c>
+      <c r="M83" s="10">
+        <v>2</v>
+      </c>
+      <c r="N83" t="str">
         <f t="shared" si="1"/>
         <v>5,,,,,2,2</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84" s="7"/>
       <c r="B84" s="8">
         <v>10081</v>
@@ -3415,25 +3676,28 @@
       <c r="E84" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F84" s="9">
-        <v>2</v>
-      </c>
-      <c r="G84" s="9"/>
+      <c r="F84" s="8">
+        <v>3</v>
+      </c>
+      <c r="G84" s="9">
+        <v>2</v>
+      </c>
       <c r="H84" s="9"/>
-      <c r="I84" s="9">
-        <v>4</v>
-      </c>
-      <c r="J84" s="9"/>
-      <c r="K84" s="9">
-        <v>2</v>
-      </c>
-      <c r="L84" s="10"/>
-      <c r="M84" t="str">
+      <c r="I84" s="9"/>
+      <c r="J84" s="9">
+        <v>4</v>
+      </c>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9">
+        <v>2</v>
+      </c>
+      <c r="M84" s="10"/>
+      <c r="N84" t="str">
         <f t="shared" si="1"/>
         <v>2,,,4,,2,</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85" s="7"/>
       <c r="B85" s="8">
         <v>10082</v>
@@ -3447,25 +3711,28 @@
       <c r="E85" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="F85" s="9">
-        <v>2</v>
+      <c r="F85" s="8">
+        <v>1</v>
       </c>
       <c r="G85" s="9">
+        <v>2</v>
+      </c>
+      <c r="H85" s="9">
         <v>5</v>
       </c>
-      <c r="H85" s="9"/>
       <c r="I85" s="9"/>
-      <c r="J85" s="9">
-        <v>2</v>
-      </c>
-      <c r="K85" s="9"/>
-      <c r="L85" s="10"/>
-      <c r="M85" t="str">
+      <c r="J85" s="9"/>
+      <c r="K85" s="9">
+        <v>2</v>
+      </c>
+      <c r="L85" s="9"/>
+      <c r="M85" s="10"/>
+      <c r="N85" t="str">
         <f t="shared" si="1"/>
         <v>2,5,,,2,,</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86" s="11"/>
       <c r="B86" s="12">
         <v>10083</v>
@@ -3479,20 +3746,23 @@
       <c r="E86" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="F86" s="13"/>
+      <c r="F86" s="12">
+        <v>4</v>
+      </c>
       <c r="G86" s="13"/>
       <c r="H86" s="13"/>
-      <c r="I86" s="13">
-        <v>1</v>
-      </c>
+      <c r="I86" s="13"/>
       <c r="J86" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K86" s="13">
-        <v>1</v>
-      </c>
-      <c r="L86" s="14"/>
-      <c r="M86" t="str">
+        <v>3</v>
+      </c>
+      <c r="L86" s="13">
+        <v>1</v>
+      </c>
+      <c r="M86" s="14"/>
+      <c r="N86" t="str">
         <f t="shared" si="1"/>
         <v>,,,1,3,1,</v>
       </c>
